--- a/Keys.xlsx
+++ b/Keys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Логин</t>
   </si>
@@ -27,16 +27,22 @@
     <t>Может ли редактировать</t>
   </si>
   <si>
-    <t>Токарь Максим</t>
-  </si>
-  <si>
-    <t>vitaliy777</t>
-  </si>
-  <si>
-    <t>Начальник цеха Виталий</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Должность, имя</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>11ff</t>
+  </si>
+  <si>
+    <t>11gdf</t>
   </si>
 </sst>
 </file>
@@ -73,12 +79,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +387,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,7 +399,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -403,28 +412,28 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123456</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
